--- a/biology/Médecine/Hormonothérapie/Hormonothérapie.xlsx
+++ b/biology/Médecine/Hormonothérapie/Hormonothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hormonoth%C3%A9rapie</t>
+          <t>Hormonothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, l'hormonothérapie est un traitement médicamenteux à base de différentes hormones parmi lesquelles les hormones de croissance et les hormones sexuelles, les hormones thyroïdiennes et bien d'autres molécules endogènes. Ce traitement visant en principe à remplacer la sécrétion d'une hormone, les termes hormonosubstitution ou traitement hormonal substitutif (THS) sont parfois utilisés pour le désigner.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hormonoth%C3%A9rapie</t>
+          <t>Hormonothérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Chez l'être humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hormonothérapie est utilisée dans de nombreux cas :
 traitement hormonal substitutif de la ménopause ;
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hormonoth%C3%A9rapie</t>
+          <t>Hormonothérapie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,20 +567,22 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon la cause de l'utilisation de l'hormonothérapie, de la dose, ou bien des hormones utilisées, il est possible que des effets secondaires apparaissent. Le nombre d'effets ainsi que leur intensité varient entre chaque patient. Les effets peuvent se cumuler et apparaitre à tout moment lors du traitement.
-Effets secondaires potentiels durant l'hormonothérapie[1] : 
+Effets secondaires potentiels durant l'hormonothérapie : 
 fatigue
 nausée et vomissements. Ces effets secondaires s'atténuent généralement au long du traitement par acclimatation du corps au médicament.
 augmentation du poids, certaines hormones prescrites altèrent l'appétit et augmentent la rétention d'eau
 perte partielle ou totale de libido
 ménopause précoce. Certaines hormones utilisées pour l'hormonothérapie, comme l'œstrogène et la progestérone, sont des hormones naturellement produites durant la ménopause chez la femme. Ces hormones peuvent simuler une ménopause temporaire ou permanente.
 impuissance
-troubles de la fertilité. Ils peuvent être temporaires ou permanents et sont causés par une suppression de la production des spermatozoïdes et des ovules[2].
+troubles de la fertilité. Ils peuvent être temporaires ou permanents et sont causés par une suppression de la production des spermatozoïdes et des ovules.
 diarrhée. L'hormonothérapie peut avoir des effets sur les cellules tapissant le tube digestif. L'hormone administrée ou la dose a plus ou moins de chance de résulter en diarrhée.
 douleur musculaire ou articulaire
-formation de caillots sanguins. La prise d'hormone comme l'œstrogène peut augmenter le nombre de protéines de coagulation, pouvant mener à un caillot de sang[3].
+formation de caillots sanguins. La prise d'hormone comme l'œstrogène peut augmenter le nombre de protéines de coagulation, pouvant mener à un caillot de sang.
 ostéoporose. Il s'agit d'une conséquence à long terme de l'hormonothérapie. La perte osseuse peut être évitée par la prise supplémentaire de vitamine D et de calcium.</t>
         </is>
       </c>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hormonoth%C3%A9rapie</t>
+          <t>Hormonothérapie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,6 +612,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
